--- a/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en salud_2.xlsx
+++ b/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en salud_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE865D6-8F81-4191-993C-62B690EBC772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8BE865D6-8F81-4191-993C-62B690EBC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F7E149-901D-4B92-BBB9-FB4D01EFF5FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" activeTab="5" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="10" r:id="rId1"/>
@@ -149,48 +149,6 @@
     <t>Departamento</t>
   </si>
   <si>
-    <t>Eliminación de barreras geográficas y temporales</t>
-  </si>
-  <si>
-    <t>La educación virtual permite el acceso a estudiantes que, por diversas circunstancias, no pueden asistir presencialmente ni ajustarse a horarios predeterminados.</t>
-  </si>
-  <si>
-    <t>Desarrollo de competencias digitales</t>
-  </si>
-  <si>
-    <t>Fomenta el uso de herramientas de comunicación en línea, colaboración virtual y manejo de plataformas tecnológicas, habilidades altamente valoradas en el mercado laboral.</t>
-  </si>
-  <si>
-    <t>Personalización de la educación</t>
-  </si>
-  <si>
-    <t>La digitalización permite recopilar datos sobre el desempeño de los estudiantes para adaptar los contenidos a sus intereses y habilidades, brindando una educación más inclusiva.</t>
-  </si>
-  <si>
-    <t>Flexibilidad de la educación</t>
-  </si>
-  <si>
-    <t>Los estudiantes pueden acceder al contenido educativo en línea en el momento que les resulte más conveniente, adaptando su aprendizaje a sus responsabilidades laborales y personales.</t>
-  </si>
-  <si>
-    <t>Fortalecimiento de comunidades de aprendizaje globales</t>
-  </si>
-  <si>
-    <t>Las nuevas metodologías didácticas facilitan el networking y la colaboración entre estudiantes y docentes de distintas partes del mundo.</t>
-  </si>
-  <si>
-    <t>Transformación de la gestión académica y escolar</t>
-  </si>
-  <si>
-    <t>La adopción de sistemas de información estudiantil (SIS) y plataformas tecnológicas optimiza la matrícula, programación de horarios, seguimiento de asistencia, consulta de calificaciones y planificación académica.</t>
-  </si>
-  <si>
-    <t>Transformación de la gestión administrativa</t>
-  </si>
-  <si>
-    <t>La digitalización mejora la eficiencia institucional al eliminar el uso excesivo de papel, optimizar la emisión de pagos, gestión de solicitudes, procesamiento de nóminas y generación de reportes financieros.</t>
-  </si>
-  <si>
     <t>Formato número</t>
   </si>
   <si>
@@ -855,6 +813,48 @@
   </si>
   <si>
     <t>$Departamento: Gasto público en salud, 2016-2025</t>
+  </si>
+  <si>
+    <t>Reducción de barreras geográficas</t>
+  </si>
+  <si>
+    <t>Permite acceso a especialistas para poblaciones rurales o de difícil acceso, eliminando la necesidad de desplazamientos costosos y largos.</t>
+  </si>
+  <si>
+    <t>Reducción de la congestión hospitalaria</t>
+  </si>
+  <si>
+    <t>La telemedicina permite atender a miles de pacientes de manera remota, descongestionando los servicios de salud y optimizando recursos. Ejemplo: EsSalud Moquegua atendió 56,000 pacientes en 202</t>
+  </si>
+  <si>
+    <t>Monitoreo continuo de pacientes</t>
+  </si>
+  <si>
+    <t>Los dispositivos vestibles, como los relojes inteligentes, facilitan el seguimiento de pacientes en tiempo real, permitiendo intervenciones tempranas.</t>
+  </si>
+  <si>
+    <t>Optimización de recursos</t>
+  </si>
+  <si>
+    <t>Reduce la carga en hospitales al evitar consultas presenciales innecesarias y permite una mejor distribución del personal médico.</t>
+  </si>
+  <si>
+    <t>Enfoque preventivo</t>
+  </si>
+  <si>
+    <t>Las nuevas tecnologías en salud fomentan la medicina preventiva mediante el análisis de datos y alertas tempranas, cambiando el paradigma de tratamiento puro a tratamiento acompañado de prevención.</t>
+  </si>
+  <si>
+    <t>Capacitación profesional remota</t>
+  </si>
+  <si>
+    <t>La telesalud facilita la capacitacion y formación continua de médicos en regiones alejadas mediante plataformas digitales y casos clínicos virtuales.</t>
+  </si>
+  <si>
+    <t>Personalización de tratamientos</t>
+  </si>
+  <si>
+    <t>La recolección sistemática de datos permite adaptar los tratamientos a las necesidades específicas de cada paciente.</t>
   </si>
 </sst>
 </file>
@@ -1662,9 +1662,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1702,7 +1702,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1808,7 +1808,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1950,7 +1950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1960,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D02EE3-0100-4A5F-8302-8309F532D55A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1985,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,13 +2005,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
@@ -2027,22 +2027,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -2051,59 +2051,59 @@
         <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -2151,10 +2151,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>13</v>
@@ -2163,13 +2163,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B3" s="27">
         <v>96572591</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="27">
         <v>69117576</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B13" s="27">
         <v>97304550</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27">
         <v>76308867</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B27" s="27">
         <v>24246988</v>
@@ -3792,7 +3792,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>86</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>104</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>249</v>
@@ -4015,10 +4015,10 @@
         <v>38</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4029,7 +4029,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4043,7 +4043,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4071,7 +4071,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4228,7 +4228,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4239,7 +4239,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4250,7 +4250,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4261,7 +4261,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4294,7 +4294,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4305,7 +4305,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4316,7 +4316,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -4338,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4349,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4360,7 +4360,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4382,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4404,7 +4404,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4437,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -4470,7 +4470,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -4503,7 +4503,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -4558,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -4569,7 +4569,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4580,7 +4580,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -4591,7 +4591,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -4602,7 +4602,7 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4613,7 +4613,7 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4624,7 +4624,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -4657,7 +4657,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -4668,7 +4668,7 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -4679,7 +4679,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -4701,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4712,7 +4712,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -4723,7 +4723,7 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -4745,7 +4745,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4756,7 +4756,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -4789,7 +4789,7 @@
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4800,7 +4800,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4811,7 +4811,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -4855,7 +4855,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -4888,7 +4888,7 @@
         <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -4899,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -4910,7 +4910,7 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -4921,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -4943,7 +4943,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -4954,7 +4954,7 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -4976,7 +4976,7 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -4987,7 +4987,7 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -4998,7 +4998,7 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5009,7 +5009,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5020,7 +5020,7 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -5042,7 +5042,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -5053,7 +5053,7 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -5064,7 +5064,7 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -5075,7 +5075,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -5108,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C100">
         <v>7</v>
@@ -5130,7 +5130,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -5152,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>7</v>
@@ -5163,7 +5163,7 @@
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -5174,7 +5174,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C106">
         <v>8</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -5207,7 +5207,7 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -5240,7 +5240,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -5251,7 +5251,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C112">
         <v>8</v>
@@ -5262,7 +5262,7 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -5273,7 +5273,7 @@
         <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -5284,7 +5284,7 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C115">
         <v>8</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -5306,7 +5306,7 @@
         <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -5328,7 +5328,7 @@
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -5339,7 +5339,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -5350,7 +5350,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C123">
         <v>10</v>
@@ -5383,7 +5383,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C124">
         <v>10</v>
@@ -5394,7 +5394,7 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C125">
         <v>11</v>
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -5427,7 +5427,7 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C128">
         <v>11</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C129">
         <v>11</v>
@@ -5449,7 +5449,7 @@
         <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C130">
         <v>11</v>
@@ -5460,7 +5460,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C131">
         <v>12</v>
@@ -5471,7 +5471,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -5482,7 +5482,7 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C133">
         <v>13</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C134">
         <v>13</v>
@@ -5504,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C135">
         <v>13</v>
@@ -5515,7 +5515,7 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C136">
         <v>13</v>
@@ -5526,7 +5526,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C137">
         <v>13</v>
@@ -5537,7 +5537,7 @@
         <v>28</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C138">
         <v>13</v>
@@ -5548,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -5559,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C140">
         <v>14</v>
@@ -5570,7 +5570,7 @@
         <v>30</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C141">
         <v>14</v>
@@ -5581,7 +5581,7 @@
         <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C142">
         <v>14</v>
@@ -5592,7 +5592,7 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C143">
         <v>14</v>
@@ -5603,7 +5603,7 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C145">
         <v>15</v>
@@ -5625,7 +5625,7 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C146">
         <v>15</v>
@@ -5636,7 +5636,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C147">
         <v>16</v>
@@ -5647,7 +5647,7 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C148">
         <v>16</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C149">
         <v>16</v>
@@ -5669,7 +5669,7 @@
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C150">
         <v>16</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B151" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C151">
         <v>17</v>
@@ -5702,7 +5702,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C153">
         <v>17</v>
@@ -5713,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C154">
         <v>17</v>
@@ -5724,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C155">
         <v>18</v>
@@ -5735,7 +5735,7 @@
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C156">
         <v>18</v>
@@ -5746,7 +5746,7 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C157">
         <v>18</v>
@@ -5757,7 +5757,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -5779,7 +5779,7 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C160">
         <v>20</v>
@@ -5790,7 +5790,7 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C161">
         <v>20</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B162" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C162">
         <v>20</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C163">
         <v>21</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B164" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C164">
         <v>21</v>
@@ -5834,7 +5834,7 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C165">
         <v>21</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B166" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C166">
         <v>21</v>
@@ -5856,7 +5856,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C167">
         <v>22</v>
@@ -5867,7 +5867,7 @@
         <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C168">
         <v>22</v>
@@ -5878,7 +5878,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C169">
         <v>24</v>
@@ -5889,7 +5889,7 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C170">
         <v>26</v>
@@ -5900,7 +5900,7 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C171">
         <v>27</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C172">
         <v>27</v>
@@ -5922,7 +5922,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C173">
         <v>29</v>
@@ -5933,7 +5933,7 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C174">
         <v>30</v>
@@ -5944,7 +5944,7 @@
         <v>34</v>
       </c>
       <c r="B175" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C175">
         <v>30</v>
@@ -5955,7 +5955,7 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C176">
         <v>31</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C177">
         <v>33</v>
@@ -5977,7 +5977,7 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C178">
         <v>33</v>
@@ -5985,10 +5985,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C179">
         <v>34</v>
@@ -5999,7 +5999,7 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C180">
         <v>34</v>
@@ -6010,7 +6010,7 @@
         <v>30</v>
       </c>
       <c r="B181" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C181">
         <v>34</v>
@@ -6021,7 +6021,7 @@
         <v>37</v>
       </c>
       <c r="B182" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C182">
         <v>35</v>
@@ -6032,7 +6032,7 @@
         <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C183">
         <v>36</v>
@@ -6043,7 +6043,7 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C184">
         <v>38</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C185">
         <v>39</v>
@@ -6065,7 +6065,7 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C186">
         <v>43</v>
@@ -6076,7 +6076,7 @@
         <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C187">
         <v>49</v>
@@ -6087,7 +6087,7 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C188">
         <v>55</v>
@@ -6098,7 +6098,7 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C189">
         <v>64</v>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B192" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C192">
         <v>78</v>
@@ -6142,7 +6142,7 @@
         <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C193">
         <v>366</v>
@@ -6157,8 +6157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31AE7B-E6DC-4EC3-8EDA-5D75A33CF19C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,60 +6175,60 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>52</v>
+        <v>273</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
